--- a/TimeDelNetSimMEX_Lib/Items/enumedit.xlsx
+++ b/TimeDelNetSimMEX_Lib/Items/enumedit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>V_REQ</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>I_IN_REQ</t>
+  </si>
+  <si>
+    <t>SPIKE_LIST_REQ</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +467,7 @@
         <v xml:space="preserve">V_REQ               = (1 &lt;&lt; 0), </v>
       </c>
       <c r="G2">
-        <f>MAX(C2:C17)</f>
+        <f>MAX(C2:C18)</f>
         <v>18</v>
       </c>
     </row>
@@ -476,15 +479,15 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" si="0">LEN(A3)</f>
+        <f t="shared" ref="C3:C18" si="0">LEN(A3)</f>
         <v>10</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D17" si="1">CONCATENATE(A3, REPT(" ",$G$2+1-C3))</f>
+        <f t="shared" ref="D3:D18" si="1">CONCATENATE(A3, REPT(" ",$G$2+1-C3))</f>
         <v xml:space="preserve">I_IN_1_REQ         </v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E17" si="2">CONCATENATE(D3," = (1 &lt;&lt; ",B3,"), ")</f>
+        <f t="shared" ref="E3:E18" si="2">CONCATENATE(D3," = (1 &lt;&lt; ",B3,"), ")</f>
         <v xml:space="preserve">I_IN_1_REQ          = (1 &lt;&lt; 1), </v>
       </c>
     </row>
@@ -730,42 +733,62 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">INITIAL_STATE_REQ  </v>
+        <v xml:space="preserve">SPIKE_LIST_REQ     </v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">INITIAL_STATE_REQ   = (1 &lt;&lt; 14), </v>
+        <v xml:space="preserve">SPIKE_LIST_REQ      = (1 &lt;&lt; 14), </v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">INITIAL_STATE_REQ  </v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INITIAL_STATE_REQ   = (1 &lt;&lt; 15), </v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">FINAL_STATE_REQ    </v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">FINAL_STATE_REQ     = (1 &lt;&lt; 15), </v>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">FINAL_STATE_REQ     = (1 &lt;&lt; 16), </v>
       </c>
     </row>
   </sheetData>

--- a/TimeDelNetSimMEX_Lib/Items/enumedit.xlsx
+++ b/TimeDelNetSimMEX_Lib/Items/enumedit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>V_REQ</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>SPIKE_LIST_REQ</t>
+  </si>
+  <si>
+    <t>WEIGHT_DERIV_REQ</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,7 @@
         <v xml:space="preserve">V_REQ               = (1 &lt;&lt; 0), </v>
       </c>
       <c r="G2">
-        <f>MAX(C2:C18)</f>
+        <f>MAX(C2:C19)</f>
         <v>18</v>
       </c>
     </row>
@@ -479,15 +482,15 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C18" si="0">LEN(A3)</f>
+        <f t="shared" ref="C3:C19" si="0">LEN(A3)</f>
         <v>10</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D18" si="1">CONCATENATE(A3, REPT(" ",$G$2+1-C3))</f>
+        <f t="shared" ref="D3:D19" si="1">CONCATENATE(A3, REPT(" ",$G$2+1-C3))</f>
         <v xml:space="preserve">I_IN_1_REQ         </v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E18" si="2">CONCATENATE(D3," = (1 &lt;&lt; ",B3,"), ")</f>
+        <f t="shared" ref="E3:E19" si="2">CONCATENATE(D3," = (1 &lt;&lt; ",B3,"), ")</f>
         <v xml:space="preserve">I_IN_1_REQ          = (1 &lt;&lt; 1), </v>
       </c>
     </row>
@@ -499,15 +502,15 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="3">LEN(A4)</f>
+        <f t="shared" ref="C4:C8" si="3">LEN(A4)</f>
         <v>10</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D7" si="4">CONCATENATE(A4, REPT(" ",$G$2+1-C4))</f>
+        <f t="shared" ref="D4:D8" si="4">CONCATENATE(A4, REPT(" ",$G$2+1-C4))</f>
         <v xml:space="preserve">I_IN_2_REQ         </v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E7" si="5">CONCATENATE(D4," = (1 &lt;&lt; ",B4,"), ")</f>
+        <f t="shared" ref="E4:E8" si="5">CONCATENATE(D4," = (1 &lt;&lt; ",B4,"), ")</f>
         <v xml:space="preserve">I_IN_2_REQ          = (1 &lt;&lt; 2), </v>
       </c>
     </row>
@@ -553,147 +556,147 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
+        <f t="shared" ref="C7" si="9">LEN(A7)</f>
+        <v>16</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" ref="D7" si="10">CONCATENATE(A7, REPT(" ",$G$2+1-C7))</f>
+        <v xml:space="preserve">WEIGHT_DERIV_REQ   </v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7" si="11">CONCATENATE(D7," = (1 &lt;&lt; ",B7,"), ")</f>
+        <v xml:space="preserve">WEIGHT_DERIV_REQ    = (1 &lt;&lt; 5), </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">GEN_STATE_REQ      </v>
       </c>
-      <c r="E7" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">GEN_STATE_REQ       = (1 &lt;&lt; 5), </v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">TIME_REQ           </v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">TIME_REQ            = (1 &lt;&lt; 6), </v>
+        <v xml:space="preserve">GEN_STATE_REQ       = (1 &lt;&lt; 6), </v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">U_REQ              </v>
+        <v xml:space="preserve">TIME_REQ           </v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">U_REQ               = (1 &lt;&lt; 7), </v>
+        <v xml:space="preserve">TIME_REQ            = (1 &lt;&lt; 7), </v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">WEIGHT_REQ         </v>
+        <v xml:space="preserve">U_REQ              </v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">WEIGHT_REQ          = (1 &lt;&lt; 8), </v>
+        <v xml:space="preserve">U_REQ               = (1 &lt;&lt; 8), </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">CURRENT_QINDS_REQ  </v>
+        <v xml:space="preserve">WEIGHT_REQ         </v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">CURRENT_QINDS_REQ   = (1 &lt;&lt; 9), </v>
+        <v xml:space="preserve">WEIGHT_REQ          = (1 &lt;&lt; 9), </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SPIKE_QUEUE_REQ    </v>
+        <v xml:space="preserve">CURRENT_QINDS_REQ  </v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">SPIKE_QUEUE_REQ     = (1 &lt;&lt; 10), </v>
+        <v xml:space="preserve">CURRENT_QINDS_REQ   = (1 &lt;&lt; 10), </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">LASTSPIKED_NEU_REQ </v>
+        <v xml:space="preserve">SPIKE_QUEUE_REQ    </v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">LASTSPIKED_NEU_REQ  = (1 &lt;&lt; 11), </v>
+        <v xml:space="preserve">SPIKE_QUEUE_REQ     = (1 &lt;&lt; 11), </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -704,91 +707,111 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">LASTSPIKED_SYN_REQ </v>
+        <v xml:space="preserve">LASTSPIKED_NEU_REQ </v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">LASTSPIKED_SYN_REQ  = (1 &lt;&lt; 12), </v>
+        <v xml:space="preserve">LASTSPIKED_NEU_REQ  = (1 &lt;&lt; 12), </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">I_TOT_REQ          </v>
+        <v xml:space="preserve">LASTSPIKED_SYN_REQ </v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">I_TOT_REQ           = (1 &lt;&lt; 13), </v>
+        <v xml:space="preserve">LASTSPIKED_SYN_REQ  = (1 &lt;&lt; 13), </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">SPIKE_LIST_REQ     </v>
+        <v xml:space="preserve">I_TOT_REQ          </v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">SPIKE_LIST_REQ      = (1 &lt;&lt; 14), </v>
+        <v xml:space="preserve">I_TOT_REQ           = (1 &lt;&lt; 14), </v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">INITIAL_STATE_REQ  </v>
+        <v xml:space="preserve">SPIKE_LIST_REQ     </v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">INITIAL_STATE_REQ   = (1 &lt;&lt; 15), </v>
+        <v xml:space="preserve">SPIKE_LIST_REQ      = (1 &lt;&lt; 15), </v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">INITIAL_STATE_REQ  </v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INITIAL_STATE_REQ   = (1 &lt;&lt; 16), </v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">FINAL_STATE_REQ    </v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">FINAL_STATE_REQ     = (1 &lt;&lt; 16), </v>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">FINAL_STATE_REQ     = (1 &lt;&lt; 17), </v>
       </c>
     </row>
   </sheetData>
